--- a/批量导入模板/期中美术教师考核模板.xlsx
+++ b/批量导入模板/期中美术教师考核模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGithub\ynyzjs\teacher_system\批量导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E56400-D134-4155-9F6D-247AFE3FB171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A99B53-D7AA-44A5-930F-12571E9B7A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,10 +102,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐教师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,6 +185,10 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>美术教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,25 +580,25 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>22</v>
@@ -615,10 +615,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>30</v>
@@ -653,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -680,7 +680,7 @@
         <v>2.9849999999999994</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -721,7 +721,7 @@
         <v>2.9699999999999998</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>2.9699999999999998</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -931,10 +931,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>30</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
@@ -996,12 +996,12 @@
         <v>2.9849999999999994</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>3</v>
@@ -1037,12 +1037,12 @@
         <v>2.9699999999999998</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -1078,12 +1078,12 @@
         <v>2.9699999999999998</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
@@ -1119,12 +1119,12 @@
         <v>3</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
